--- a/tests/data/group_variables/group_multiple_sheets.xlsx
+++ b/tests/data/group_variables/group_multiple_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/group_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1011E6-9ED9-B946-A43E-4B052C9E0B8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C9DC73-686B-9546-8988-5D53C4792924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="3740" windowWidth="23400" windowHeight="12560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10780" yWindow="3740" windowWidth="23400" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>DE</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -530,15 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -599,8 +602,11 @@
       <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -641,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -670,18 +676,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="J6" s="2"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="F8" s="3"/>
     </row>
   </sheetData>
@@ -693,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941397A-7330-9547-AF52-FDEEF1BA8E78}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/tests/data/group_variables/group_multiple_sheets.xlsx
+++ b/tests/data/group_variables/group_multiple_sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/group_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C9DC73-686B-9546-8988-5D53C4792924}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F5D56-FA9F-8F46-BB60-349ED5814753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10780" yWindow="3740" windowWidth="23400" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,7 +536,7 @@
   <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="U3" sqref="U1:U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -646,6 +646,9 @@
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -673,6 +676,9 @@
         <v>28</v>
       </c>
       <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
     </row>

--- a/tests/data/group_variables/group_multiple_sheets.xlsx
+++ b/tests/data/group_variables/group_multiple_sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jedpreist/CodingStuff/DIMPACT/eam-data-tools/tests/data/group_variables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4F5D56-FA9F-8F46-BB60-349ED5814753}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DC6298-8667-614E-9C76-4DF861EA19F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="3740" windowWidth="23400" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3740" windowWidth="23400" windowHeight="12560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="params" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>variable</t>
   </si>
@@ -533,168 +533,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U1:U3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
         <v>21</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0.1</v>
+      </c>
       <c r="G2">
+        <v>0.05</v>
+      </c>
+      <c r="H2" s="2">
+        <v>43617</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0.1</v>
-      </c>
-      <c r="I2">
-        <v>0.05</v>
-      </c>
-      <c r="J2" s="2">
-        <v>43617</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="T2">
+      <c r="S2">
         <v>0</v>
       </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B3" t="s">
         <v>27</v>
       </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
       <c r="F3">
-        <v>20</v>
+        <v>0.1</v>
       </c>
       <c r="G3">
-        <v>0.25</v>
-      </c>
-      <c r="H3">
         <v>0.1</v>
       </c>
-      <c r="I3">
-        <v>0.1</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="H3" s="2">
         <v>42522</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="T3">
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="S3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="J6" s="2"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F8" s="3"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -705,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C941397A-7330-9547-AF52-FDEEF1BA8E78}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
